--- a/results/tables/accuracy_age_males_thorax.xlsx
+++ b/results/tables/accuracy_age_males_thorax.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8837209302325582</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="E2" t="n">
         <v>22</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8125</v>
+        <v>0.875</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8648648648648649</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8648648648648649</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8648648648648649</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8648648648648649</v>
+        <v>0.918918918918919</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8586309523809523</v>
+        <v>0.9136904761904762</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8651515151515152</v>
+        <v>0.9212121212121211</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8612153038259565</v>
+        <v>0.9167291822955739</v>
       </c>
       <c r="E5" t="n">
         <v>37</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8673584298584298</v>
+        <v>0.9210102960102959</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8648648648648649</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8654731250380162</v>
+        <v>0.9192838750228097</v>
       </c>
       <c r="E6" t="n">
         <v>37</v>
